--- a/JupyterNotebooks/AveragedIntensites-Exp/TRIP780F.xlsx
+++ b/JupyterNotebooks/AveragedIntensites-Exp/TRIP780F.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,56 +1221,56 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HexGrid-90degTilt5degRes</t>
+          <t>HexGrid-90degTilt22p5degRes</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9861578971481871</v>
+        <v>0.9942783707768669</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9913306608720435</v>
+        <v>0.9876431694675819</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9881494912983581</v>
+        <v>0.9801133740497162</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9861578971481871</v>
+        <v>0.9942783707768669</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9890972860804736</v>
+        <v>0.9881620024722707</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9890787327105351</v>
+        <v>0.9631200627381333</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9863806546095566</v>
+        <v>0.9859554117093244</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9913306608720435</v>
+        <v>0.9876431694675819</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9897400760852008</v>
+        <v>0.9838782717586491</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9897400760852008</v>
+        <v>0.9838782717586491</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9895258127502918</v>
+        <v>0.9853061819965229</v>
       </c>
       <c r="N14" t="n">
-        <v>0.9885460164395296</v>
+        <v>0.9873449714313883</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9885460164395296</v>
+        <v>0.9873449714313883</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9879489866166939</v>
+        <v>0.989078321267758</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9879489866166939</v>
+        <v>0.989078321267758</v>
       </c>
       <c r="R14" t="n">
-        <v>0.988365787119859</v>
+        <v>0.9832120652023155</v>
       </c>
     </row>
     <row r="15">
@@ -1793,6 +1793,122 @@
       </c>
       <c r="R23" t="n">
         <v>1.122830974966717</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RotRing Axis-Y Res-5.0 Theta-2.5 </t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.222691003359202</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.895576178072181</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9709247760303786</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.222691003359202</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9375911349841114</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9196952270909058</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9983055836563478</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.895576178072181</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9332504770512798</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.9332504770512798</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.9346973630288904</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.029730652487254</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.029730652487254</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.077970740205241</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.077970740205241</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.9907973171988544</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RotRing Axis-Y Res-5.0 Theta-5.0 </t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.145805252063063</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9003833225384833</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9719831634697815</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.145805252063063</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9438708744676136</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9255320281711241</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9990716574632709</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.9003833225384833</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9361832430041324</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.9361832430041324</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.9387457868252929</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.006057246023776</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.006057246023776</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.040994247533598</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.040994247533598</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.9811077163622227</v>
       </c>
     </row>
   </sheetData>
